--- a/origin.xlsx
+++ b/origin.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17660" windowHeight="6840"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -5083,374 +5083,39 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5460,363 +5125,81 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5843,82 +5226,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5930,162 +5313,218 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6363636363636" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="13.6363636363636" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6363636363636" style="1" customWidth="1"/>
-    <col min="8" max="22" width="13.6363636363636" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.6363636363636" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="13.6363636363636" style="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="6" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="25" customHeight="1" spans="1:33">
-      <c r="A1" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -6094,49 +5533,49 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
@@ -6175,105 +5614,105 @@
       <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>48</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>50</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="4" t="s">
         <v>63</v>
       </c>
       <c r="AF2" s="3" t="s">
@@ -6283,98 +5722,98 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>70</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>73</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>75</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>77</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="4" t="s">
         <v>79</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="4" t="s">
         <v>81</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AB3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AD3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AE3" s="4" t="s">
         <v>94</v>
       </c>
       <c r="AF3" s="3" t="s">
@@ -6384,98 +5823,98 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>98</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>100</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>102</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>104</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>106</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>108</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>110</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="4" t="s">
         <v>112</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" s="4" t="s">
         <v>125</v>
       </c>
       <c r="AF4" s="3" t="s">
@@ -6485,98 +5924,98 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>129</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>131</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>133</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>135</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>137</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="4" t="s">
         <v>138</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="4" t="s">
         <v>140</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="4" t="s">
         <v>142</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="V5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AB5" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AC5" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AD5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AE5" s="4" t="s">
         <v>154</v>
       </c>
       <c r="AF5" s="3" t="s">
@@ -6586,98 +6025,98 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>159</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>161</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>163</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>165</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="4" t="s">
         <v>167</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="4" t="s">
         <v>169</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="4" t="s">
         <v>171</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="4" t="s">
         <v>173</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="U6" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="V6" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="W6" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="X6" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Y6" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="Z6" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AA6" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AB6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AC6" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AD6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AE6" s="4" t="s">
         <v>184</v>
       </c>
       <c r="AF6" s="3" t="s">
@@ -6687,98 +6126,98 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>187</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>189</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>191</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>193</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="4" t="s">
         <v>195</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="4" t="s">
         <v>197</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="4" t="s">
         <v>199</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="4" t="s">
         <v>201</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="T7" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="U7" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="V7" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="W7" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="X7" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Y7" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="Z7" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AA7" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AB7" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AC7" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AD7" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AE7" s="4" t="s">
         <v>213</v>
       </c>
       <c r="AF7" s="3" t="s">
@@ -6788,98 +6227,98 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>217</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>219</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>221</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>223</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="4" t="s">
         <v>225</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="4" t="s">
         <v>227</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="4" t="s">
         <v>229</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="4" t="s">
         <v>231</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="T8" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="U8" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="V8" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="W8" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="X8" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Y8" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="Z8" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AA8" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AB8" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AC8" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AD8" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AE8" s="4" t="s">
         <v>243</v>
       </c>
       <c r="AF8" s="3" t="s">
@@ -6889,98 +6328,98 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>247</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>249</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>251</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="4" t="s">
         <v>253</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="4" t="s">
         <v>255</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="4" t="s">
         <v>257</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="4" t="s">
         <v>259</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="4" t="s">
         <v>261</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="T9" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="U9" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="V9" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="W9" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="X9" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Y9" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="Z9" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AA9" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AB9" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AC9" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="AD9" s="3" t="s">
+      <c r="AD9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE9" s="3" t="s">
+      <c r="AE9" s="4" t="s">
         <v>273</v>
       </c>
       <c r="AF9" s="3" t="s">
@@ -6990,98 +6429,98 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3" t="s">
         <v>275</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>277</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>279</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>281</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="4" t="s">
         <v>283</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="4" t="s">
         <v>285</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="4" t="s">
         <v>287</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="4" t="s">
         <v>289</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="4" t="s">
         <v>291</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="T10" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="U10" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="V10" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="W10" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="X10" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="Y10" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="Z10" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AA10" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AB10" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AC10" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AD10" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="AE10" s="3" t="s">
+      <c r="AE10" s="4" t="s">
         <v>303</v>
       </c>
       <c r="AF10" s="3" t="s">
@@ -7091,98 +6530,98 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3" t="s">
         <v>275</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>306</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>308</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>310</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="4" t="s">
         <v>312</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="4" t="s">
         <v>314</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="4" t="s">
         <v>316</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="4" t="s">
         <v>318</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="R11" s="4" t="s">
         <v>320</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="T11" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="U11" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="V11" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="W11" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="X11" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="Y11" s="3" t="s">
+      <c r="Y11" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="Z11" s="3" t="s">
+      <c r="Z11" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="AA11" s="3" t="s">
+      <c r="AA11" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AB11" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AC11" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AD11" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="AE11" s="3" t="s">
+      <c r="AE11" s="4" t="s">
         <v>331</v>
       </c>
       <c r="AF11" s="3" t="s">
@@ -7192,98 +6631,98 @@
         <v>332</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3" t="s">
         <v>275</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>334</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>336</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>338</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="4" t="s">
         <v>340</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="4" t="s">
         <v>342</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="4" t="s">
         <v>344</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="4" t="s">
         <v>346</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="R12" s="4" t="s">
         <v>348</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="T12" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="U12" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="V12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="W12" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="X12" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="Y12" s="3" t="s">
+      <c r="Y12" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="Z12" s="3" t="s">
+      <c r="Z12" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="AA12" s="3" t="s">
+      <c r="AA12" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="AB12" s="3" t="s">
+      <c r="AB12" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="AC12" s="3" t="s">
+      <c r="AC12" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="AD12" s="3" t="s">
+      <c r="AD12" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="AE12" s="3" t="s">
+      <c r="AE12" s="4" t="s">
         <v>359</v>
       </c>
       <c r="AF12" s="3" t="s">
@@ -7293,98 +6732,98 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3" t="s">
         <v>275</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>362</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>364</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>366</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="4" t="s">
         <v>368</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="4" t="s">
         <v>369</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="4" t="s">
         <v>371</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="4" t="s">
         <v>372</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="4" t="s">
         <v>374</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="T13" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="U13" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="V13" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="W13" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="X13" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="Y13" s="3" t="s">
+      <c r="Y13" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="Z13" s="3" t="s">
+      <c r="Z13" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="AA13" s="3" t="s">
+      <c r="AA13" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="AB13" s="3" t="s">
+      <c r="AB13" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="AC13" s="3" t="s">
+      <c r="AC13" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="AD13" s="3" t="s">
+      <c r="AD13" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AE13" s="3" t="s">
+      <c r="AE13" s="4" t="s">
         <v>385</v>
       </c>
       <c r="AF13" s="3" t="s">
@@ -7394,98 +6833,98 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3" t="s">
         <v>388</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>390</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>392</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>394</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="4" t="s">
         <v>396</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="4" t="s">
         <v>398</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="4" t="s">
         <v>400</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="4" t="s">
         <v>402</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="4" t="s">
         <v>404</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Z14" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AA14" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AB14" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AC14" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AD14" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AE14" s="4" t="s">
         <v>417</v>
       </c>
       <c r="AF14" s="3" t="s">
@@ -7495,98 +6934,98 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3" t="s">
         <v>388</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>421</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>423</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>425</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="4" t="s">
         <v>427</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="4" t="s">
         <v>429</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="4" t="s">
         <v>431</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="4" t="s">
         <v>433</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="4" t="s">
         <v>435</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="T15" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="U15" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="V15" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="W15" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="X15" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="Y15" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="Z15" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="AA15" s="3" t="s">
+      <c r="AA15" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="AB15" s="3" t="s">
+      <c r="AB15" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="AC15" s="3" t="s">
+      <c r="AC15" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD15" s="3" t="s">
+      <c r="AD15" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="AE15" s="3" t="s">
+      <c r="AE15" s="4" t="s">
         <v>447</v>
       </c>
       <c r="AF15" s="3" t="s">
@@ -7596,98 +7035,98 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3" t="s">
         <v>388</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>450</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>452</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>454</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="4" t="s">
         <v>455</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="4" t="s">
         <v>457</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="4" t="s">
         <v>459</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="4" t="s">
         <v>461</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="4" t="s">
         <v>463</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="T16" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="U16" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="V16" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="W16" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="X16" s="3" t="s">
+      <c r="X16" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="Y16" s="3" t="s">
+      <c r="Y16" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="Z16" s="3" t="s">
+      <c r="Z16" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="AA16" s="3" t="s">
+      <c r="AA16" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="AB16" s="3" t="s">
+      <c r="AB16" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="AC16" s="3" t="s">
+      <c r="AC16" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="AD16" s="3" t="s">
+      <c r="AD16" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="AE16" s="3" t="s">
+      <c r="AE16" s="4" t="s">
         <v>475</v>
       </c>
       <c r="AF16" s="3" t="s">
@@ -7697,98 +7136,98 @@
         <v>476</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3" t="s">
         <v>388</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>478</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>480</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="4" t="s">
         <v>482</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="4" t="s">
         <v>484</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="4" t="s">
         <v>486</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="4" t="s">
         <v>488</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="4" t="s">
         <v>490</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="R17" s="4" t="s">
         <v>491</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="T17" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="U17" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="V17" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="W17" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="X17" s="3" t="s">
+      <c r="X17" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="Y17" s="3" t="s">
+      <c r="Y17" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="Z17" s="3" t="s">
+      <c r="Z17" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="AA17" s="3" t="s">
+      <c r="AA17" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="AB17" s="3" t="s">
+      <c r="AB17" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="AC17" s="3" t="s">
+      <c r="AC17" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="AD17" s="3" t="s">
+      <c r="AD17" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="AE17" s="3" t="s">
+      <c r="AE17" s="4" t="s">
         <v>502</v>
       </c>
       <c r="AF17" s="3" t="s">
@@ -7798,98 +7237,98 @@
         <v>448</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3" t="s">
         <v>503</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>505</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>507</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="4" t="s">
         <v>509</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="4" t="s">
         <v>511</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="4" t="s">
         <v>513</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="4" t="s">
         <v>515</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="P18" s="4" t="s">
         <v>517</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="R18" s="4" t="s">
         <v>519</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="T18" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="U18" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="V18" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="W18" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="X18" s="3" t="s">
+      <c r="X18" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="Y18" s="3" t="s">
+      <c r="Y18" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="Z18" s="3" t="s">
+      <c r="Z18" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="AA18" s="3" t="s">
+      <c r="AA18" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="AB18" s="3" t="s">
+      <c r="AB18" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="AC18" s="3" t="s">
+      <c r="AC18" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="AD18" s="3" t="s">
+      <c r="AD18" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AE18" s="3" t="s">
+      <c r="AE18" s="4" t="s">
         <v>530</v>
       </c>
       <c r="AF18" s="3" t="s">
@@ -7899,98 +7338,98 @@
         <v>332</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3" t="s">
         <v>503</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>533</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>535</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="4" t="s">
         <v>537</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="4" t="s">
         <v>539</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="4" t="s">
         <v>541</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="4" t="s">
         <v>543</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="4" t="s">
         <v>545</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="R19" s="4" t="s">
         <v>547</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="T19" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="U19" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="V19" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="W19" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="X19" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="Y19" s="3" t="s">
+      <c r="Y19" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="Z19" s="3" t="s">
+      <c r="Z19" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="AA19" s="3" t="s">
+      <c r="AA19" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="AB19" s="3" t="s">
+      <c r="AB19" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="AC19" s="3" t="s">
+      <c r="AC19" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="AD19" s="3" t="s">
+      <c r="AD19" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="AE19" s="3" t="s">
+      <c r="AE19" s="4" t="s">
         <v>559</v>
       </c>
       <c r="AF19" s="3" t="s">
@@ -8000,98 +7439,98 @@
         <v>387</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3" t="s">
         <v>503</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>562</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>564</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="4" t="s">
         <v>566</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="4" t="s">
         <v>568</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="4" t="s">
         <v>570</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="4" t="s">
         <v>572</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="P20" s="4" t="s">
         <v>573</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="4" t="s">
         <v>575</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="T20" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="U20" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="V20" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="W20" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="X20" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="Y20" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="Z20" s="3" t="s">
+      <c r="Z20" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="AA20" s="3" t="s">
+      <c r="AA20" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="AB20" s="3" t="s">
+      <c r="AB20" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="AC20" s="3" t="s">
+      <c r="AC20" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="AD20" s="3" t="s">
+      <c r="AD20" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="AE20" s="3" t="s">
+      <c r="AE20" s="4" t="s">
         <v>587</v>
       </c>
       <c r="AF20" s="3" t="s">
@@ -8101,98 +7540,98 @@
         <v>387</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3" t="s">
         <v>503</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>589</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>591</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="4" t="s">
         <v>593</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="4" t="s">
         <v>595</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="4" t="s">
         <v>597</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="4" t="s">
         <v>599</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="4" t="s">
         <v>600</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="R21" s="4" t="s">
         <v>601</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="T21" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="U21" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="V21" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="W21" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="X21" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="Y21" s="3" t="s">
+      <c r="Y21" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="Z21" s="3" t="s">
+      <c r="Z21" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="AA21" s="3" t="s">
+      <c r="AA21" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="AB21" s="3" t="s">
+      <c r="AB21" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="AC21" s="3" t="s">
+      <c r="AC21" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="AD21" s="3" t="s">
+      <c r="AD21" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="AE21" s="3" t="s">
+      <c r="AE21" s="4" t="s">
         <v>447</v>
       </c>
       <c r="AF21" s="3" t="s">
@@ -8202,98 +7641,98 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3" t="s">
         <v>613</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>615</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>617</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="4" t="s">
         <v>619</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="4" t="s">
         <v>620</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="4" t="s">
         <v>622</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="4" t="s">
         <v>624</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="4" t="s">
         <v>625</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="4" t="s">
         <v>627</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="T22" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="U22" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="V22" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="W22" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="X22" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="Y22" s="3" t="s">
+      <c r="Y22" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="Z22" s="3" t="s">
+      <c r="Z22" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="AA22" s="3" t="s">
+      <c r="AA22" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="AB22" s="3" t="s">
+      <c r="AB22" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="AC22" s="3" t="s">
+      <c r="AC22" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="AD22" s="3" t="s">
+      <c r="AD22" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="AE22" s="3" t="s">
+      <c r="AE22" s="4" t="s">
         <v>638</v>
       </c>
       <c r="AF22" s="3" t="s">
@@ -8303,98 +7742,98 @@
         <v>448</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3" t="s">
         <v>613</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>640</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>641</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="4" t="s">
         <v>643</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="4" t="s">
         <v>644</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="4" t="s">
         <v>646</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="4" t="s">
         <v>648</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="P23" s="4" t="s">
         <v>649</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="4" t="s">
         <v>650</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="T23" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="U23" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="V23" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="W23" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="X23" s="3" t="s">
+      <c r="X23" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="Y23" s="3" t="s">
+      <c r="Y23" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="Z23" s="3" t="s">
+      <c r="Z23" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="AA23" s="3" t="s">
+      <c r="AA23" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="AB23" s="3" t="s">
+      <c r="AB23" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="AC23" s="3" t="s">
+      <c r="AC23" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="AD23" s="3" t="s">
+      <c r="AD23" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="AE23" s="3" t="s">
+      <c r="AE23" s="4" t="s">
         <v>661</v>
       </c>
       <c r="AF23" s="3" t="s">
@@ -8404,98 +7843,98 @@
         <v>332</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3" t="s">
         <v>613</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>664</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>665</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="4" t="s">
         <v>667</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="4" t="s">
         <v>668</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="4" t="s">
         <v>670</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="4" t="s">
         <v>671</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="P24" s="4" t="s">
         <v>673</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="4" t="s">
         <v>675</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="T24" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="U24" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="V24" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="W24" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="X24" s="3" t="s">
+      <c r="X24" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="Y24" s="3" t="s">
+      <c r="Y24" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="Z24" s="3" t="s">
+      <c r="Z24" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="AA24" s="3" t="s">
+      <c r="AA24" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="AB24" s="3" t="s">
+      <c r="AB24" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="AC24" s="3" t="s">
+      <c r="AC24" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="AD24" s="3" t="s">
+      <c r="AD24" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AE24" s="3" t="s">
+      <c r="AE24" s="4" t="s">
         <v>687</v>
       </c>
       <c r="AF24" s="3" t="s">
@@ -8505,98 +7944,98 @@
         <v>419</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3" t="s">
         <v>613</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>690</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="4" t="s">
         <v>692</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="4" t="s">
         <v>694</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="4" t="s">
         <v>696</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="4" t="s">
         <v>697</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="N25" s="4" t="s">
         <v>698</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="P25" s="4" t="s">
         <v>700</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="R25" s="4" t="s">
         <v>702</v>
       </c>
       <c r="S25" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="T25" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="U25" s="3" t="s">
+      <c r="U25" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="V25" s="3" t="s">
+      <c r="V25" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="W25" s="3" t="s">
+      <c r="W25" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="X25" s="3" t="s">
+      <c r="X25" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="Y25" s="3" t="s">
+      <c r="Y25" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="Z25" s="3" t="s">
+      <c r="Z25" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="AA25" s="3" t="s">
+      <c r="AA25" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="AB25" s="3" t="s">
+      <c r="AB25" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="AC25" s="3" t="s">
+      <c r="AC25" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="AD25" s="3" t="s">
+      <c r="AD25" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AE25" s="3" t="s">
+      <c r="AE25" s="4" t="s">
         <v>714</v>
       </c>
       <c r="AF25" s="3" t="s">
@@ -8606,98 +8045,98 @@
         <v>332</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3" t="s">
         <v>716</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>718</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="4" t="s">
         <v>720</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="4" t="s">
         <v>722</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="4" t="s">
         <v>724</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="4" t="s">
         <v>726</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="N26" s="4" t="s">
         <v>727</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="P26" s="4" t="s">
         <v>729</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="R26" s="4" t="s">
         <v>731</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="T26" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="U26" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="V26" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="W26" s="3" t="s">
+      <c r="W26" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="X26" s="3" t="s">
+      <c r="X26" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="Y26" s="3" t="s">
+      <c r="Y26" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="Z26" s="3" t="s">
+      <c r="Z26" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="AA26" s="3" t="s">
+      <c r="AA26" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="AB26" s="3" t="s">
+      <c r="AB26" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="AC26" s="3" t="s">
+      <c r="AC26" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="AD26" s="3" t="s">
+      <c r="AD26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AE26" s="3" t="s">
+      <c r="AE26" s="4" t="s">
         <v>743</v>
       </c>
       <c r="AF26" s="3" t="s">
@@ -8707,98 +8146,98 @@
         <v>476</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3" t="s">
         <v>716</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>746</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="4" t="s">
         <v>748</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="4" t="s">
         <v>750</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="4" t="s">
         <v>752</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="4" t="s">
         <v>754</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N27" s="4" t="s">
         <v>756</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="P27" s="4" t="s">
         <v>758</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="R27" s="4" t="s">
         <v>760</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="T27" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="U27" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="V27" s="3" t="s">
+      <c r="V27" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="W27" s="3" t="s">
+      <c r="W27" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="X27" s="3" t="s">
+      <c r="X27" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="Y27" s="3" t="s">
+      <c r="Y27" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="Z27" s="3" t="s">
+      <c r="Z27" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="AA27" s="3" t="s">
+      <c r="AA27" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="AB27" s="3" t="s">
+      <c r="AB27" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="AC27" s="3" t="s">
+      <c r="AC27" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="AD27" s="3" t="s">
+      <c r="AD27" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AE27" s="3" t="s">
+      <c r="AE27" s="4" t="s">
         <v>772</v>
       </c>
       <c r="AF27" s="3" t="s">
@@ -8808,98 +8247,98 @@
         <v>773</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3" t="s">
         <v>716</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>775</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="4" t="s">
         <v>776</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="4" t="s">
         <v>778</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="4" t="s">
         <v>780</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="4" t="s">
         <v>782</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="N28" s="4" t="s">
         <v>784</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="P28" s="4" t="s">
         <v>785</v>
       </c>
       <c r="Q28" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="R28" s="4" t="s">
         <v>787</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="T28" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="U28" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="V28" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="W28" s="3" t="s">
+      <c r="W28" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="X28" s="3" t="s">
+      <c r="X28" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="Y28" s="3" t="s">
+      <c r="Y28" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="Z28" s="3" t="s">
+      <c r="Z28" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="AA28" s="3" t="s">
+      <c r="AA28" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="AB28" s="3" t="s">
+      <c r="AB28" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="AC28" s="3" t="s">
+      <c r="AC28" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="AD28" s="3" t="s">
+      <c r="AD28" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AE28" s="3" t="s">
+      <c r="AE28" s="4" t="s">
         <v>661</v>
       </c>
       <c r="AF28" s="3" t="s">
@@ -8909,98 +8348,98 @@
         <v>476</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3" t="s">
         <v>716</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>797</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="4" t="s">
         <v>798</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="4" t="s">
         <v>799</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="4" t="s">
         <v>800</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="4" t="s">
         <v>802</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="4" t="s">
         <v>803</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="4" t="s">
         <v>804</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="4" t="s">
         <v>320</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="T29" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="U29" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="V29" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="W29" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="X29" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Y29" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="Z29" s="3" t="s">
+      <c r="Z29" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="AA29" s="3" t="s">
+      <c r="AA29" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="AB29" s="3" t="s">
+      <c r="AB29" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="AC29" s="3" t="s">
+      <c r="AC29" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="AD29" s="3" t="s">
+      <c r="AD29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE29" s="3" t="s">
+      <c r="AE29" s="4" t="s">
         <v>814</v>
       </c>
       <c r="AF29" s="3" t="s">
@@ -9010,98 +8449,98 @@
         <v>476</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3" t="s">
         <v>816</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>818</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="4" t="s">
         <v>820</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="4" t="s">
         <v>822</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="4" t="s">
         <v>824</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="4" t="s">
         <v>826</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="N30" s="4" t="s">
         <v>828</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="P30" s="4" t="s">
         <v>829</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="R30" s="4" t="s">
         <v>830</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="T30" s="4" t="s">
         <v>831</v>
       </c>
-      <c r="U30" s="3" t="s">
+      <c r="U30" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="V30" s="3" t="s">
+      <c r="V30" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="W30" s="3" t="s">
+      <c r="W30" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="X30" s="3" t="s">
+      <c r="X30" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="Y30" s="3" t="s">
+      <c r="Y30" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="Z30" s="3" t="s">
+      <c r="Z30" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="AA30" s="3" t="s">
+      <c r="AA30" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="AB30" s="3" t="s">
+      <c r="AB30" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="AC30" s="3" t="s">
+      <c r="AC30" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="AD30" s="3" t="s">
+      <c r="AD30" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="AE30" s="3" t="s">
+      <c r="AE30" s="4" t="s">
         <v>838</v>
       </c>
       <c r="AF30" s="3" t="s">
@@ -9111,98 +8550,98 @@
         <v>476</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="3" t="s">
         <v>816</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>840</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>841</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="4" t="s">
         <v>843</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="4" t="s">
         <v>845</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="4" t="s">
         <v>846</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="4" t="s">
         <v>848</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="N31" s="4" t="s">
         <v>850</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="P31" s="4" t="s">
         <v>851</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="R31" s="4" t="s">
         <v>853</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="T31" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="U31" s="3" t="s">
+      <c r="U31" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="V31" s="3" t="s">
+      <c r="V31" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="W31" s="3" t="s">
+      <c r="W31" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="X31" s="3" t="s">
+      <c r="X31" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="Y31" s="3" t="s">
+      <c r="Y31" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="Z31" s="3" t="s">
+      <c r="Z31" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="AA31" s="3" t="s">
+      <c r="AA31" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="AB31" s="3" t="s">
+      <c r="AB31" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AC31" s="3" t="s">
+      <c r="AC31" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="AD31" s="3" t="s">
+      <c r="AD31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AE31" s="3" t="s">
+      <c r="AE31" s="4" t="s">
         <v>862</v>
       </c>
       <c r="AF31" s="3" t="s">
@@ -9212,98 +8651,98 @@
         <v>864</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="3" t="s">
         <v>816</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>866</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="4" t="s">
         <v>868</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="4" t="s">
         <v>870</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="4" t="s">
         <v>871</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="4" t="s">
         <v>872</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="N32" s="4" t="s">
         <v>874</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="P32" s="4" t="s">
         <v>875</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="R32" s="4" t="s">
         <v>877</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="T32" s="4" t="s">
         <v>879</v>
       </c>
-      <c r="U32" s="3" t="s">
+      <c r="U32" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="V32" s="3" t="s">
+      <c r="V32" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="W32" s="3" t="s">
+      <c r="W32" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="X32" s="3" t="s">
+      <c r="X32" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="Y32" s="3" t="s">
+      <c r="Y32" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="Z32" s="3" t="s">
+      <c r="Z32" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="AA32" s="3" t="s">
+      <c r="AA32" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="AB32" s="3" t="s">
+      <c r="AB32" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="AC32" s="3" t="s">
+      <c r="AC32" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="AD32" s="3" t="s">
+      <c r="AD32" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="AE32" s="3" t="s">
+      <c r="AE32" s="4" t="s">
         <v>888</v>
       </c>
       <c r="AF32" s="3" t="s">
@@ -9313,98 +8752,98 @@
         <v>773</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3" t="s">
         <v>816</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>891</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="4" t="s">
         <v>893</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="4" t="s">
         <v>895</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="4" t="s">
         <v>896</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="4" t="s">
         <v>898</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="N33" s="4" t="s">
         <v>900</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="P33" s="4" t="s">
         <v>901</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="R33" s="4" t="s">
         <v>902</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="T33" s="3" t="s">
+      <c r="T33" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="U33" s="3" t="s">
+      <c r="U33" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="V33" s="3" t="s">
+      <c r="V33" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="W33" s="3" t="s">
+      <c r="W33" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="X33" s="3" t="s">
+      <c r="X33" s="4" t="s">
         <v>908</v>
       </c>
-      <c r="Y33" s="3" t="s">
+      <c r="Y33" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="Z33" s="3" t="s">
+      <c r="Z33" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="AA33" s="3" t="s">
+      <c r="AA33" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="AB33" s="3" t="s">
+      <c r="AB33" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="AC33" s="3" t="s">
+      <c r="AC33" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="AD33" s="3" t="s">
+      <c r="AD33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE33" s="3" t="s">
+      <c r="AE33" s="4" t="s">
         <v>914</v>
       </c>
       <c r="AF33" s="3" t="s">
@@ -9414,98 +8853,98 @@
         <v>476</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3" t="s">
         <v>915</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>917</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="4" t="s">
         <v>918</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="4" t="s">
         <v>920</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="4" t="s">
         <v>922</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="4" t="s">
         <v>924</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N34" s="4" t="s">
         <v>925</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="P34" s="4" t="s">
         <v>926</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="R34" s="4" t="s">
         <v>928</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="T34" s="3" t="s">
+      <c r="T34" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="U34" s="3" t="s">
+      <c r="U34" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="V34" s="3" t="s">
+      <c r="V34" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="W34" s="3" t="s">
+      <c r="W34" s="4" t="s">
         <v>933</v>
       </c>
-      <c r="X34" s="3" t="s">
+      <c r="X34" s="4" t="s">
         <v>934</v>
       </c>
-      <c r="Y34" s="3" t="s">
+      <c r="Y34" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="Z34" s="3" t="s">
+      <c r="Z34" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="AA34" s="3" t="s">
+      <c r="AA34" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="AB34" s="3" t="s">
+      <c r="AB34" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="AC34" s="3" t="s">
+      <c r="AC34" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="AD34" s="3" t="s">
+      <c r="AD34" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="AE34" s="3" t="s">
+      <c r="AE34" s="4" t="s">
         <v>940</v>
       </c>
       <c r="AF34" s="3" t="s">
@@ -9515,98 +8954,98 @@
         <v>476</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3" t="s">
         <v>915</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>942</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>943</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="4" t="s">
         <v>945</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="4" t="s">
         <v>947</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="4" t="s">
         <v>948</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="4" t="s">
         <v>950</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="N35" s="4" t="s">
         <v>951</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="P35" s="4" t="s">
         <v>953</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="R35" s="4" t="s">
         <v>955</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="T35" s="3" t="s">
+      <c r="T35" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="U35" s="3" t="s">
+      <c r="U35" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="V35" s="3" t="s">
+      <c r="V35" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="W35" s="3" t="s">
+      <c r="W35" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="X35" s="3" t="s">
+      <c r="X35" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="Y35" s="3" t="s">
+      <c r="Y35" s="4" t="s">
         <v>961</v>
       </c>
-      <c r="Z35" s="3" t="s">
+      <c r="Z35" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="AA35" s="3" t="s">
+      <c r="AA35" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="AB35" s="3" t="s">
+      <c r="AB35" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="AC35" s="3" t="s">
+      <c r="AC35" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="AD35" s="3" t="s">
+      <c r="AD35" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="AE35" s="3" t="s">
+      <c r="AE35" s="4" t="s">
         <v>966</v>
       </c>
       <c r="AF35" s="3" t="s">
@@ -9616,98 +9055,98 @@
         <v>968</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3" t="s">
         <v>915</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>970</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="4" t="s">
         <v>971</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="4" t="s">
         <v>973</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="4" t="s">
         <v>975</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="4" t="s">
         <v>977</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="N36" s="4" t="s">
         <v>978</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="P36" s="4" t="s">
         <v>980</v>
       </c>
       <c r="Q36" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="R36" s="4" t="s">
         <v>982</v>
       </c>
       <c r="S36" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="T36" s="3" t="s">
+      <c r="T36" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="U36" s="3" t="s">
+      <c r="U36" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="V36" s="3" t="s">
+      <c r="V36" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="W36" s="3" t="s">
+      <c r="W36" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="X36" s="3" t="s">
+      <c r="X36" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="Y36" s="3" t="s">
+      <c r="Y36" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="Z36" s="3" t="s">
+      <c r="Z36" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="AA36" s="3" t="s">
+      <c r="AA36" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="AB36" s="3" t="s">
+      <c r="AB36" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="AC36" s="3" t="s">
+      <c r="AC36" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="AD36" s="3" t="s">
+      <c r="AD36" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="AE36" s="3" t="s">
+      <c r="AE36" s="4" t="s">
         <v>991</v>
       </c>
       <c r="AF36" s="3" t="s">
@@ -9717,98 +9156,98 @@
         <v>773</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="3" t="s">
         <v>915</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>993</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="4" t="s">
         <v>995</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="4" t="s">
         <v>997</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="4" t="s">
         <v>999</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="4" t="s">
         <v>1001</v>
       </c>
       <c r="M37" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="N37" s="4" t="s">
         <v>1002</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="P37" s="4" t="s">
         <v>1004</v>
       </c>
       <c r="Q37" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="R37" s="4" t="s">
         <v>1006</v>
       </c>
       <c r="S37" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="T37" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="U37" s="3" t="s">
+      <c r="U37" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="V37" s="3" t="s">
+      <c r="V37" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="W37" s="3" t="s">
+      <c r="W37" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="X37" s="3" t="s">
+      <c r="X37" s="4" t="s">
         <v>1009</v>
       </c>
-      <c r="Y37" s="3" t="s">
+      <c r="Y37" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="Z37" s="3" t="s">
+      <c r="Z37" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="AA37" s="3" t="s">
+      <c r="AA37" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="AB37" s="3" t="s">
+      <c r="AB37" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="AC37" s="3" t="s">
+      <c r="AC37" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="AD37" s="3" t="s">
+      <c r="AD37" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="AE37" s="3" t="s">
+      <c r="AE37" s="4" t="s">
         <v>1014</v>
       </c>
       <c r="AF37" s="3" t="s">
@@ -9818,98 +9257,98 @@
         <v>476</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>1016</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>1017</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="4" t="s">
         <v>1019</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="4" t="s">
         <v>1020</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="4" t="s">
         <v>1022</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="4" t="s">
         <v>1024</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="N38" s="4" t="s">
         <v>1026</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="P38" s="4" t="s">
         <v>1027</v>
       </c>
       <c r="Q38" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="R38" s="3" t="s">
+      <c r="R38" s="4" t="s">
         <v>1028</v>
       </c>
       <c r="S38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="T38" s="3" t="s">
+      <c r="T38" s="4" t="s">
         <v>1029</v>
       </c>
-      <c r="U38" s="3" t="s">
+      <c r="U38" s="4" t="s">
         <v>1030</v>
       </c>
-      <c r="V38" s="3" t="s">
+      <c r="V38" s="4" t="s">
         <v>1031</v>
       </c>
-      <c r="W38" s="3" t="s">
+      <c r="W38" s="4" t="s">
         <v>1032</v>
       </c>
-      <c r="X38" s="3" t="s">
+      <c r="X38" s="4" t="s">
         <v>1033</v>
       </c>
-      <c r="Y38" s="3" t="s">
+      <c r="Y38" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="Z38" s="3" t="s">
+      <c r="Z38" s="4" t="s">
         <v>1035</v>
       </c>
-      <c r="AA38" s="3" t="s">
+      <c r="AA38" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="AB38" s="3" t="s">
+      <c r="AB38" s="4" t="s">
         <v>1037</v>
       </c>
-      <c r="AC38" s="3" t="s">
+      <c r="AC38" s="4" t="s">
         <v>1038</v>
       </c>
-      <c r="AD38" s="3" t="s">
+      <c r="AD38" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="AE38" s="3" t="s">
+      <c r="AE38" s="4" t="s">
         <v>1039</v>
       </c>
       <c r="AF38" s="3" t="s">
@@ -9919,98 +9358,98 @@
         <v>332</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>1041</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>1042</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="4" t="s">
         <v>1043</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="4" t="s">
         <v>1044</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="4" t="s">
         <v>1045</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="L39" s="4" t="s">
         <v>1046</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="N39" s="4" t="s">
         <v>1048</v>
       </c>
       <c r="O39" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="P39" s="4" t="s">
         <v>1049</v>
       </c>
       <c r="Q39" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="R39" s="4" t="s">
         <v>1051</v>
       </c>
       <c r="S39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="T39" s="4" t="s">
         <v>1052</v>
       </c>
-      <c r="U39" s="3" t="s">
+      <c r="U39" s="4" t="s">
         <v>1053</v>
       </c>
-      <c r="V39" s="3" t="s">
+      <c r="V39" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="W39" s="3" t="s">
+      <c r="W39" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="X39" s="3" t="s">
+      <c r="X39" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="Y39" s="3" t="s">
+      <c r="Y39" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="Z39" s="3" t="s">
+      <c r="Z39" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="AA39" s="3" t="s">
+      <c r="AA39" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="AB39" s="3" t="s">
+      <c r="AB39" s="4" t="s">
         <v>1058</v>
       </c>
-      <c r="AC39" s="3" t="s">
+      <c r="AC39" s="4" t="s">
         <v>1059</v>
       </c>
-      <c r="AD39" s="3" t="s">
+      <c r="AD39" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="AE39" s="3" t="s">
+      <c r="AE39" s="4" t="s">
         <v>1060</v>
       </c>
       <c r="AF39" s="3" t="s">
@@ -10020,98 +9459,98 @@
         <v>332</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>1062</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>1063</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="4" t="s">
         <v>1065</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="4" t="s">
         <v>1066</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="4" t="s">
         <v>1068</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="4" t="s">
         <v>1069</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="N40" s="4" t="s">
         <v>1071</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="P40" s="4" t="s">
         <v>1072</v>
       </c>
       <c r="Q40" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="R40" s="3" t="s">
+      <c r="R40" s="4" t="s">
         <v>1074</v>
       </c>
       <c r="S40" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="T40" s="3" t="s">
+      <c r="T40" s="4" t="s">
         <v>1075</v>
       </c>
-      <c r="U40" s="3" t="s">
+      <c r="U40" s="4" t="s">
         <v>1076</v>
       </c>
-      <c r="V40" s="3" t="s">
+      <c r="V40" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="W40" s="3" t="s">
+      <c r="W40" s="4" t="s">
         <v>1077</v>
       </c>
-      <c r="X40" s="3" t="s">
+      <c r="X40" s="4" t="s">
         <v>1078</v>
       </c>
-      <c r="Y40" s="3" t="s">
+      <c r="Y40" s="4" t="s">
         <v>1079</v>
       </c>
-      <c r="Z40" s="3" t="s">
+      <c r="Z40" s="4" t="s">
         <v>1080</v>
       </c>
-      <c r="AA40" s="3" t="s">
+      <c r="AA40" s="4" t="s">
         <v>1081</v>
       </c>
-      <c r="AB40" s="3" t="s">
+      <c r="AB40" s="4" t="s">
         <v>1082</v>
       </c>
-      <c r="AC40" s="3" t="s">
+      <c r="AC40" s="4" t="s">
         <v>1083</v>
       </c>
-      <c r="AD40" s="3" t="s">
+      <c r="AD40" s="4" t="s">
         <v>1084</v>
       </c>
-      <c r="AE40" s="3" t="s">
+      <c r="AE40" s="4" t="s">
         <v>1085</v>
       </c>
       <c r="AF40" s="3" t="s">
@@ -10121,98 +9560,98 @@
         <v>332</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>1087</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>1088</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="4" t="s">
         <v>1090</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="4" t="s">
         <v>1092</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="4" t="s">
         <v>1093</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="4" t="s">
         <v>1094</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="N41" s="4" t="s">
         <v>1096</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="P41" s="4" t="s">
         <v>1097</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="R41" s="3" t="s">
+      <c r="R41" s="4" t="s">
         <v>1099</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="T41" s="3" t="s">
+      <c r="T41" s="4" t="s">
         <v>1100</v>
       </c>
-      <c r="U41" s="3" t="s">
+      <c r="U41" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="V41" s="3" t="s">
+      <c r="V41" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="W41" s="3" t="s">
+      <c r="W41" s="4" t="s">
         <v>1103</v>
       </c>
-      <c r="X41" s="3" t="s">
+      <c r="X41" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="Y41" s="3" t="s">
+      <c r="Y41" s="4" t="s">
         <v>1105</v>
       </c>
-      <c r="Z41" s="3" t="s">
+      <c r="Z41" s="4" t="s">
         <v>1106</v>
       </c>
-      <c r="AA41" s="3" t="s">
+      <c r="AA41" s="4" t="s">
         <v>1107</v>
       </c>
-      <c r="AB41" s="3" t="s">
+      <c r="AB41" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="AC41" s="3" t="s">
+      <c r="AC41" s="4" t="s">
         <v>1109</v>
       </c>
-      <c r="AD41" s="3" t="s">
+      <c r="AD41" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AE41" s="3" t="s">
+      <c r="AE41" s="4" t="s">
         <v>1110</v>
       </c>
       <c r="AF41" s="3" t="s">
@@ -10222,98 +9661,98 @@
         <v>332</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="3" t="s">
         <v>1112</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>1113</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>1114</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="4" t="s">
         <v>1116</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="4" t="s">
         <v>1118</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="4" t="s">
         <v>1120</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="4" t="s">
         <v>1122</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="N42" s="4" t="s">
         <v>1124</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="P42" s="4" t="s">
         <v>1126</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="R42" s="4" t="s">
         <v>1128</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="T42" s="4" t="s">
         <v>1130</v>
       </c>
-      <c r="U42" s="3" t="s">
+      <c r="U42" s="4" t="s">
         <v>1131</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="V42" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="W42" s="3" t="s">
+      <c r="W42" s="4" t="s">
         <v>1132</v>
       </c>
-      <c r="X42" s="3" t="s">
+      <c r="X42" s="4" t="s">
         <v>1133</v>
       </c>
-      <c r="Y42" s="3" t="s">
+      <c r="Y42" s="4" t="s">
         <v>1134</v>
       </c>
-      <c r="Z42" s="3" t="s">
+      <c r="Z42" s="4" t="s">
         <v>1135</v>
       </c>
-      <c r="AA42" s="3" t="s">
+      <c r="AA42" s="4" t="s">
         <v>1136</v>
       </c>
-      <c r="AB42" s="3" t="s">
+      <c r="AB42" s="4" t="s">
         <v>1137</v>
       </c>
-      <c r="AC42" s="3" t="s">
+      <c r="AC42" s="4" t="s">
         <v>1138</v>
       </c>
-      <c r="AD42" s="3" t="s">
+      <c r="AD42" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="AE42" s="3" t="s">
+      <c r="AE42" s="4" t="s">
         <v>1139</v>
       </c>
       <c r="AF42" s="3" t="s">
@@ -10323,98 +9762,98 @@
         <v>419</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="3" t="s">
         <v>1112</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>1141</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="4" t="s">
         <v>1142</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="4" t="s">
         <v>1144</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="4" t="s">
         <v>1146</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="4" t="s">
         <v>1148</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="L43" s="4" t="s">
         <v>1149</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="N43" s="4" t="s">
         <v>1151</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="P43" s="4" t="s">
         <v>1153</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="R43" s="4" t="s">
         <v>1154</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="T43" s="4" t="s">
         <v>1155</v>
       </c>
-      <c r="U43" s="3" t="s">
+      <c r="U43" s="4" t="s">
         <v>1156</v>
       </c>
-      <c r="V43" s="3" t="s">
+      <c r="V43" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="W43" s="3" t="s">
+      <c r="W43" s="4" t="s">
         <v>1157</v>
       </c>
-      <c r="X43" s="3" t="s">
+      <c r="X43" s="4" t="s">
         <v>1158</v>
       </c>
-      <c r="Y43" s="3" t="s">
+      <c r="Y43" s="4" t="s">
         <v>1159</v>
       </c>
-      <c r="Z43" s="3" t="s">
+      <c r="Z43" s="4" t="s">
         <v>1160</v>
       </c>
-      <c r="AA43" s="3" t="s">
+      <c r="AA43" s="4" t="s">
         <v>1161</v>
       </c>
-      <c r="AB43" s="3" t="s">
+      <c r="AB43" s="4" t="s">
         <v>1162</v>
       </c>
-      <c r="AC43" s="3" t="s">
+      <c r="AC43" s="4" t="s">
         <v>1163</v>
       </c>
-      <c r="AD43" s="3" t="s">
+      <c r="AD43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE43" s="3" t="s">
+      <c r="AE43" s="4" t="s">
         <v>1164</v>
       </c>
       <c r="AF43" s="3" t="s">
@@ -10424,98 +9863,98 @@
         <v>332</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="3" t="s">
         <v>1112</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="4" t="s">
         <v>1166</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="4" t="s">
         <v>1168</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="4" t="s">
         <v>1170</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>1171</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="4" t="s">
         <v>1172</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="L44" s="4" t="s">
         <v>1173</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="N44" s="4" t="s">
         <v>1175</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="P44" s="4" t="s">
         <v>1177</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="R44" s="4" t="s">
         <v>1178</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>1179</v>
       </c>
-      <c r="T44" s="3" t="s">
+      <c r="T44" s="4" t="s">
         <v>1180</v>
       </c>
-      <c r="U44" s="3" t="s">
+      <c r="U44" s="4" t="s">
         <v>1181</v>
       </c>
-      <c r="V44" s="3" t="s">
+      <c r="V44" s="4" t="s">
         <v>1182</v>
       </c>
-      <c r="W44" s="3" t="s">
+      <c r="W44" s="4" t="s">
         <v>1183</v>
       </c>
-      <c r="X44" s="3" t="s">
+      <c r="X44" s="4" t="s">
         <v>1184</v>
       </c>
-      <c r="Y44" s="3" t="s">
+      <c r="Y44" s="4" t="s">
         <v>1185</v>
       </c>
-      <c r="Z44" s="3" t="s">
+      <c r="Z44" s="4" t="s">
         <v>1186</v>
       </c>
-      <c r="AA44" s="3" t="s">
+      <c r="AA44" s="4" t="s">
         <v>1187</v>
       </c>
-      <c r="AB44" s="3" t="s">
+      <c r="AB44" s="4" t="s">
         <v>1188</v>
       </c>
-      <c r="AC44" s="3" t="s">
+      <c r="AC44" s="4" t="s">
         <v>1189</v>
       </c>
-      <c r="AD44" s="3" t="s">
+      <c r="AD44" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AE44" s="3" t="s">
+      <c r="AE44" s="4" t="s">
         <v>1190</v>
       </c>
       <c r="AF44" s="3" t="s">
@@ -10525,98 +9964,98 @@
         <v>332</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="3" t="s">
         <v>1112</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>1191</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="4" t="s">
         <v>1192</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="4" t="s">
         <v>1194</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>1195</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="4" t="s">
         <v>1196</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="4" t="s">
         <v>1197</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="4" t="s">
         <v>1198</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="N45" s="4" t="s">
         <v>1200</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="P45" s="4" t="s">
         <v>1202</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="R45" s="4" t="s">
         <v>1203</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="T45" s="4" t="s">
         <v>1180</v>
       </c>
-      <c r="U45" s="3" t="s">
+      <c r="U45" s="4" t="s">
         <v>1205</v>
       </c>
-      <c r="V45" s="3" t="s">
+      <c r="V45" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="W45" s="3" t="s">
+      <c r="W45" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="X45" s="3" t="s">
+      <c r="X45" s="4" t="s">
         <v>1206</v>
       </c>
-      <c r="Y45" s="3" t="s">
+      <c r="Y45" s="4" t="s">
         <v>1207</v>
       </c>
-      <c r="Z45" s="3" t="s">
+      <c r="Z45" s="4" t="s">
         <v>1208</v>
       </c>
-      <c r="AA45" s="3" t="s">
+      <c r="AA45" s="4" t="s">
         <v>1209</v>
       </c>
-      <c r="AB45" s="3" t="s">
+      <c r="AB45" s="4" t="s">
         <v>1210</v>
       </c>
-      <c r="AC45" s="3" t="s">
+      <c r="AC45" s="4" t="s">
         <v>1211</v>
       </c>
-      <c r="AD45" s="3" t="s">
+      <c r="AD45" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AE45" s="3" t="s">
+      <c r="AE45" s="4" t="s">
         <v>1212</v>
       </c>
       <c r="AF45" s="3" t="s">
@@ -10626,98 +10065,98 @@
         <v>332</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="3" t="s">
         <v>1213</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>1214</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="4" t="s">
         <v>1215</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="4" t="s">
         <v>1217</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="4" t="s">
         <v>1219</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="4" t="s">
         <v>1221</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="L46" s="4" t="s">
         <v>1223</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="N46" s="4" t="s">
         <v>1224</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="P46" s="3" t="s">
+      <c r="P46" s="4" t="s">
         <v>601</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="R46" s="3" t="s">
+      <c r="R46" s="4" t="s">
         <v>1226</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="T46" s="3" t="s">
+      <c r="T46" s="4" t="s">
         <v>1228</v>
       </c>
-      <c r="U46" s="3" t="s">
+      <c r="U46" s="4" t="s">
         <v>1229</v>
       </c>
-      <c r="V46" s="3" t="s">
+      <c r="V46" s="4" t="s">
         <v>1230</v>
       </c>
-      <c r="W46" s="3" t="s">
+      <c r="W46" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="X46" s="3" t="s">
+      <c r="X46" s="4" t="s">
         <v>1231</v>
       </c>
-      <c r="Y46" s="3" t="s">
+      <c r="Y46" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="Z46" s="3" t="s">
+      <c r="Z46" s="4" t="s">
         <v>1233</v>
       </c>
-      <c r="AA46" s="3" t="s">
+      <c r="AA46" s="4" t="s">
         <v>1234</v>
       </c>
-      <c r="AB46" s="3" t="s">
+      <c r="AB46" s="4" t="s">
         <v>1235</v>
       </c>
-      <c r="AC46" s="3" t="s">
+      <c r="AC46" s="4" t="s">
         <v>1236</v>
       </c>
-      <c r="AD46" s="3" t="s">
+      <c r="AD46" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AE46" s="3" t="s">
+      <c r="AE46" s="4" t="s">
         <v>1237</v>
       </c>
       <c r="AF46" s="3" t="s">
@@ -10727,98 +10166,98 @@
         <v>773</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="3" t="s">
         <v>1213</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>1238</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="4" t="s">
         <v>1239</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="4" t="s">
         <v>1241</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="4" t="s">
         <v>1243</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>1244</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="4" t="s">
         <v>1245</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="4" t="s">
         <v>1247</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>1248</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="N47" s="4" t="s">
         <v>1249</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="P47" s="4" t="s">
         <v>1250</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="R47" s="4" t="s">
         <v>1251</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="T47" s="4" t="s">
         <v>1253</v>
       </c>
-      <c r="U47" s="3" t="s">
+      <c r="U47" s="4" t="s">
         <v>1254</v>
       </c>
-      <c r="V47" s="3" t="s">
+      <c r="V47" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="W47" s="3" t="s">
+      <c r="W47" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="X47" s="3" t="s">
+      <c r="X47" s="4" t="s">
         <v>1255</v>
       </c>
-      <c r="Y47" s="3" t="s">
+      <c r="Y47" s="4" t="s">
         <v>1256</v>
       </c>
-      <c r="Z47" s="3" t="s">
+      <c r="Z47" s="4" t="s">
         <v>1257</v>
       </c>
-      <c r="AA47" s="3" t="s">
+      <c r="AA47" s="4" t="s">
         <v>1258</v>
       </c>
-      <c r="AB47" s="3" t="s">
+      <c r="AB47" s="4" t="s">
         <v>1259</v>
       </c>
-      <c r="AC47" s="3" t="s">
+      <c r="AC47" s="4" t="s">
         <v>1260</v>
       </c>
-      <c r="AD47" s="3" t="s">
+      <c r="AD47" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="AE47" s="3" t="s">
+      <c r="AE47" s="4" t="s">
         <v>862</v>
       </c>
       <c r="AF47" s="3" t="s">
@@ -10828,98 +10267,98 @@
         <v>476</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="3" t="s">
         <v>1213</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>1261</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="4" t="s">
         <v>1262</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="4" t="s">
         <v>1264</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="4" t="s">
         <v>1266</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="4" t="s">
         <v>1267</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="L48" s="4" t="s">
         <v>1269</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="N48" s="4" t="s">
         <v>1270</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="P48" s="4" t="s">
         <v>1271</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="R48" s="4" t="s">
         <v>1272</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="T48" s="3" t="s">
+      <c r="T48" s="4" t="s">
         <v>1274</v>
       </c>
-      <c r="U48" s="3" t="s">
+      <c r="U48" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="V48" s="3" t="s">
+      <c r="V48" s="4" t="s">
         <v>1230</v>
       </c>
-      <c r="W48" s="3" t="s">
+      <c r="W48" s="4" t="s">
         <v>1276</v>
       </c>
-      <c r="X48" s="3" t="s">
+      <c r="X48" s="4" t="s">
         <v>1277</v>
       </c>
-      <c r="Y48" s="3" t="s">
+      <c r="Y48" s="4" t="s">
         <v>1278</v>
       </c>
-      <c r="Z48" s="3" t="s">
+      <c r="Z48" s="4" t="s">
         <v>1279</v>
       </c>
-      <c r="AA48" s="3" t="s">
+      <c r="AA48" s="4" t="s">
         <v>1280</v>
       </c>
-      <c r="AB48" s="3" t="s">
+      <c r="AB48" s="4" t="s">
         <v>1281</v>
       </c>
-      <c r="AC48" s="3" t="s">
+      <c r="AC48" s="4" t="s">
         <v>1282</v>
       </c>
-      <c r="AD48" s="3" t="s">
+      <c r="AD48" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AE48" s="3" t="s">
+      <c r="AE48" s="4" t="s">
         <v>1283</v>
       </c>
       <c r="AF48" s="3" t="s">
@@ -10929,98 +10368,98 @@
         <v>773</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="3" t="s">
         <v>1213</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>1284</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>1285</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>1286</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="4" t="s">
         <v>1287</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>1288</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="4" t="s">
         <v>1289</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>1290</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="4" t="s">
         <v>1291</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>1292</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="L49" s="4" t="s">
         <v>1293</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="N49" s="4" t="s">
         <v>1294</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="P49" s="4" t="s">
         <v>1295</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="R49" s="4" t="s">
         <v>1297</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="T49" s="3" t="s">
+      <c r="T49" s="4" t="s">
         <v>1298</v>
       </c>
-      <c r="U49" s="3" t="s">
+      <c r="U49" s="4" t="s">
         <v>1299</v>
       </c>
-      <c r="V49" s="3" t="s">
+      <c r="V49" s="4" t="s">
         <v>1300</v>
       </c>
-      <c r="W49" s="3" t="s">
+      <c r="W49" s="4" t="s">
         <v>1301</v>
       </c>
-      <c r="X49" s="3" t="s">
+      <c r="X49" s="4" t="s">
         <v>1302</v>
       </c>
-      <c r="Y49" s="3" t="s">
+      <c r="Y49" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="Z49" s="3" t="s">
+      <c r="Z49" s="4" t="s">
         <v>1304</v>
       </c>
-      <c r="AA49" s="3" t="s">
+      <c r="AA49" s="4" t="s">
         <v>1305</v>
       </c>
-      <c r="AB49" s="3" t="s">
+      <c r="AB49" s="4" t="s">
         <v>1306</v>
       </c>
-      <c r="AC49" s="3" t="s">
+      <c r="AC49" s="4" t="s">
         <v>1307</v>
       </c>
-      <c r="AD49" s="3" t="s">
+      <c r="AD49" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AE49" s="3" t="s">
+      <c r="AE49" s="4" t="s">
         <v>1308</v>
       </c>
       <c r="AF49" s="3" t="s">
@@ -11030,98 +10469,98 @@
         <v>968</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="3" t="s">
         <v>1310</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>1311</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="4" t="s">
         <v>1312</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="4" t="s">
         <v>1313</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>1314</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="4" t="s">
         <v>1315</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="4" t="s">
         <v>1317</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>1318</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="L50" s="4" t="s">
         <v>1319</v>
       </c>
       <c r="M50" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="N50" s="4" t="s">
         <v>1320</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="P50" s="3" t="s">
+      <c r="P50" s="4" t="s">
         <v>1321</v>
       </c>
       <c r="Q50" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="R50" s="3" t="s">
+      <c r="R50" s="4" t="s">
         <v>1322</v>
       </c>
       <c r="S50" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="T50" s="3" t="s">
+      <c r="T50" s="4" t="s">
         <v>1323</v>
       </c>
-      <c r="U50" s="3" t="s">
+      <c r="U50" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="V50" s="3" t="s">
+      <c r="V50" s="4" t="s">
         <v>1325</v>
       </c>
-      <c r="W50" s="3" t="s">
+      <c r="W50" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="X50" s="3" t="s">
+      <c r="X50" s="4" t="s">
         <v>1327</v>
       </c>
-      <c r="Y50" s="3" t="s">
+      <c r="Y50" s="4" t="s">
         <v>1328</v>
       </c>
-      <c r="Z50" s="3" t="s">
+      <c r="Z50" s="4" t="s">
         <v>1329</v>
       </c>
-      <c r="AA50" s="3" t="s">
+      <c r="AA50" s="4" t="s">
         <v>1330</v>
       </c>
-      <c r="AB50" s="3" t="s">
+      <c r="AB50" s="4" t="s">
         <v>1331</v>
       </c>
-      <c r="AC50" s="3" t="s">
+      <c r="AC50" s="4" t="s">
         <v>1332</v>
       </c>
-      <c r="AD50" s="3" t="s">
+      <c r="AD50" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="AE50" s="3" t="s">
+      <c r="AE50" s="4" t="s">
         <v>1333</v>
       </c>
       <c r="AF50" s="3" t="s">
@@ -11131,98 +10570,98 @@
         <v>773</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="3" t="s">
         <v>1310</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>1335</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="4" t="s">
         <v>1336</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="4" t="s">
         <v>1338</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="4" t="s">
         <v>1339</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>1340</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="4" t="s">
         <v>1341</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="L51" s="4" t="s">
         <v>1342</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>1343</v>
       </c>
-      <c r="N51" s="3" t="s">
+      <c r="N51" s="4" t="s">
         <v>1344</v>
       </c>
       <c r="O51" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="P51" s="3" t="s">
+      <c r="P51" s="4" t="s">
         <v>1345</v>
       </c>
       <c r="Q51" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="R51" s="3" t="s">
+      <c r="R51" s="4" t="s">
         <v>1346</v>
       </c>
       <c r="S51" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="T51" s="3" t="s">
+      <c r="T51" s="4" t="s">
         <v>1347</v>
       </c>
-      <c r="U51" s="3" t="s">
+      <c r="U51" s="4" t="s">
         <v>1348</v>
       </c>
-      <c r="V51" s="3" t="s">
+      <c r="V51" s="4" t="s">
         <v>1349</v>
       </c>
-      <c r="W51" s="3" t="s">
+      <c r="W51" s="4" t="s">
         <v>1350</v>
       </c>
-      <c r="X51" s="3" t="s">
+      <c r="X51" s="4" t="s">
         <v>1351</v>
       </c>
-      <c r="Y51" s="3" t="s">
+      <c r="Y51" s="4" t="s">
         <v>1352</v>
       </c>
-      <c r="Z51" s="3" t="s">
+      <c r="Z51" s="4" t="s">
         <v>1353</v>
       </c>
-      <c r="AA51" s="3" t="s">
+      <c r="AA51" s="4" t="s">
         <v>1354</v>
       </c>
-      <c r="AB51" s="3" t="s">
+      <c r="AB51" s="4" t="s">
         <v>1355</v>
       </c>
-      <c r="AC51" s="3" t="s">
+      <c r="AC51" s="4" t="s">
         <v>1356</v>
       </c>
-      <c r="AD51" s="3" t="s">
+      <c r="AD51" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AE51" s="3" t="s">
+      <c r="AE51" s="4" t="s">
         <v>1357</v>
       </c>
       <c r="AF51" s="3" t="s">
@@ -11232,98 +10671,98 @@
         <v>968</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="3" t="s">
         <v>1310</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>1359</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="4" t="s">
         <v>1360</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>1361</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="4" t="s">
         <v>1362</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>1363</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="4" t="s">
         <v>1364</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>1365</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="4" t="s">
         <v>1366</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>1367</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="L52" s="4" t="s">
         <v>1368</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N52" s="3" t="s">
+      <c r="N52" s="4" t="s">
         <v>1369</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="P52" s="3" t="s">
+      <c r="P52" s="4" t="s">
         <v>1370</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="R52" s="3" t="s">
+      <c r="R52" s="4" t="s">
         <v>1371</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>1372</v>
       </c>
-      <c r="T52" s="3" t="s">
+      <c r="T52" s="4" t="s">
         <v>1373</v>
       </c>
-      <c r="U52" s="3" t="s">
+      <c r="U52" s="4" t="s">
         <v>1374</v>
       </c>
-      <c r="V52" s="3" t="s">
+      <c r="V52" s="4" t="s">
         <v>1300</v>
       </c>
-      <c r="W52" s="3" t="s">
+      <c r="W52" s="4" t="s">
         <v>1375</v>
       </c>
-      <c r="X52" s="3" t="s">
+      <c r="X52" s="4" t="s">
         <v>1376</v>
       </c>
-      <c r="Y52" s="3" t="s">
+      <c r="Y52" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="Z52" s="3" t="s">
+      <c r="Z52" s="4" t="s">
         <v>1378</v>
       </c>
-      <c r="AA52" s="3" t="s">
+      <c r="AA52" s="4" t="s">
         <v>1379</v>
       </c>
-      <c r="AB52" s="3" t="s">
+      <c r="AB52" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="AC52" s="3" t="s">
+      <c r="AC52" s="4" t="s">
         <v>1380</v>
       </c>
-      <c r="AD52" s="3" t="s">
+      <c r="AD52" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AE52" s="3" t="s">
+      <c r="AE52" s="4" t="s">
         <v>1381</v>
       </c>
       <c r="AF52" s="3" t="s">
@@ -11333,98 +10772,98 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="3" t="s">
         <v>1310</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>1384</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="4" t="s">
         <v>1385</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="4" t="s">
         <v>1386</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="4" t="s">
         <v>1387</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>1388</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="4" t="s">
         <v>1389</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="L53" s="4" t="s">
         <v>1390</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N53" s="3" t="s">
+      <c r="N53" s="4" t="s">
         <v>1391</v>
       </c>
       <c r="O53" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P53" s="3" t="s">
+      <c r="P53" s="4" t="s">
         <v>1392</v>
       </c>
       <c r="Q53" s="3" t="s">
         <v>1393</v>
       </c>
-      <c r="R53" s="3" t="s">
+      <c r="R53" s="4" t="s">
         <v>1394</v>
       </c>
       <c r="S53" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="T53" s="3" t="s">
+      <c r="T53" s="4" t="s">
         <v>1395</v>
       </c>
-      <c r="U53" s="3" t="s">
+      <c r="U53" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="V53" s="3" t="s">
+      <c r="V53" s="4" t="s">
         <v>1396</v>
       </c>
-      <c r="W53" s="3" t="s">
+      <c r="W53" s="4" t="s">
         <v>1397</v>
       </c>
-      <c r="X53" s="3" t="s">
+      <c r="X53" s="4" t="s">
         <v>1398</v>
       </c>
-      <c r="Y53" s="3" t="s">
+      <c r="Y53" s="4" t="s">
         <v>1399</v>
       </c>
-      <c r="Z53" s="3" t="s">
+      <c r="Z53" s="4" t="s">
         <v>1400</v>
       </c>
-      <c r="AA53" s="3" t="s">
+      <c r="AA53" s="4" t="s">
         <v>1401</v>
       </c>
-      <c r="AB53" s="3" t="s">
+      <c r="AB53" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="AC53" s="3" t="s">
+      <c r="AC53" s="4" t="s">
         <v>1403</v>
       </c>
-      <c r="AD53" s="3" t="s">
+      <c r="AD53" s="4" t="s">
         <v>1404</v>
       </c>
-      <c r="AE53" s="3" t="s">
+      <c r="AE53" s="4" t="s">
         <v>1405</v>
       </c>
       <c r="AF53" s="3" t="s">
@@ -11434,98 +10873,98 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="3" t="s">
         <v>1407</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>1408</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="4" t="s">
         <v>1409</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>1410</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="4" t="s">
         <v>1411</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>1412</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="4" t="s">
         <v>1413</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>1415</v>
       </c>
-      <c r="L54" s="3" t="s">
+      <c r="L54" s="4" t="s">
         <v>1416</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="N54" s="4" t="s">
         <v>1417</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="P54" s="3" t="s">
+      <c r="P54" s="4" t="s">
         <v>1419</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>1420</v>
       </c>
-      <c r="R54" s="3" t="s">
+      <c r="R54" s="4" t="s">
         <v>1421</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>1422</v>
       </c>
-      <c r="T54" s="3" t="s">
+      <c r="T54" s="4" t="s">
         <v>1423</v>
       </c>
-      <c r="U54" s="3" t="s">
+      <c r="U54" s="4" t="s">
         <v>1424</v>
       </c>
-      <c r="V54" s="3" t="s">
+      <c r="V54" s="4" t="s">
         <v>1425</v>
       </c>
-      <c r="W54" s="3" t="s">
+      <c r="W54" s="4" t="s">
         <v>1426</v>
       </c>
-      <c r="X54" s="3" t="s">
+      <c r="X54" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="Y54" s="3" t="s">
+      <c r="Y54" s="4" t="s">
         <v>1427</v>
       </c>
-      <c r="Z54" s="3" t="s">
+      <c r="Z54" s="4" t="s">
         <v>1428</v>
       </c>
-      <c r="AA54" s="3" t="s">
+      <c r="AA54" s="4" t="s">
         <v>1429</v>
       </c>
-      <c r="AB54" s="3" t="s">
+      <c r="AB54" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="AC54" s="3" t="s">
+      <c r="AC54" s="4" t="s">
         <v>1430</v>
       </c>
-      <c r="AD54" s="3" t="s">
+      <c r="AD54" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="AE54" s="3" t="s">
+      <c r="AE54" s="4" t="s">
         <v>1431</v>
       </c>
       <c r="AF54" s="3" t="s">
@@ -11535,98 +10974,98 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="3" t="s">
         <v>1407</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="4" t="s">
         <v>1435</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="4" t="s">
         <v>1437</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>1438</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="4" t="s">
         <v>1439</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>1440</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="J55" s="4" t="s">
         <v>1441</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>1442</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="L55" s="4" t="s">
         <v>1443</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="N55" s="3" t="s">
+      <c r="N55" s="4" t="s">
         <v>1444</v>
       </c>
       <c r="O55" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="P55" s="3" t="s">
+      <c r="P55" s="4" t="s">
         <v>1445</v>
       </c>
       <c r="Q55" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R55" s="3" t="s">
+      <c r="R55" s="4" t="s">
         <v>1446</v>
       </c>
       <c r="S55" s="3" t="s">
         <v>1447</v>
       </c>
-      <c r="T55" s="3" t="s">
+      <c r="T55" s="4" t="s">
         <v>1448</v>
       </c>
-      <c r="U55" s="3" t="s">
+      <c r="U55" s="4" t="s">
         <v>1449</v>
       </c>
-      <c r="V55" s="3" t="s">
+      <c r="V55" s="4" t="s">
         <v>1450</v>
       </c>
-      <c r="W55" s="3" t="s">
+      <c r="W55" s="4" t="s">
         <v>1451</v>
       </c>
-      <c r="X55" s="3" t="s">
+      <c r="X55" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="Y55" s="3" t="s">
+      <c r="Y55" s="4" t="s">
         <v>1453</v>
       </c>
-      <c r="Z55" s="3" t="s">
+      <c r="Z55" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="AA55" s="3" t="s">
+      <c r="AA55" s="4" t="s">
         <v>1455</v>
       </c>
-      <c r="AB55" s="3" t="s">
+      <c r="AB55" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="AC55" s="3" t="s">
+      <c r="AC55" s="4" t="s">
         <v>1456</v>
       </c>
-      <c r="AD55" s="3" t="s">
+      <c r="AD55" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AE55" s="3" t="s">
+      <c r="AE55" s="4" t="s">
         <v>1457</v>
       </c>
       <c r="AF55" s="3" t="s">
@@ -11636,98 +11075,98 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="3" t="s">
         <v>1407</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>1459</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="4" t="s">
         <v>1460</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>1461</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="4" t="s">
         <v>1462</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>1463</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="4" t="s">
         <v>1464</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J56" s="4" t="s">
         <v>1465</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>1466</v>
       </c>
-      <c r="L56" s="3" t="s">
+      <c r="L56" s="4" t="s">
         <v>1467</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>1468</v>
       </c>
-      <c r="N56" s="3" t="s">
+      <c r="N56" s="4" t="s">
         <v>1469</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>1470</v>
       </c>
-      <c r="P56" s="3" t="s">
+      <c r="P56" s="4" t="s">
         <v>1471</v>
       </c>
       <c r="Q56" s="3" t="s">
         <v>1472</v>
       </c>
-      <c r="R56" s="3" t="s">
+      <c r="R56" s="4" t="s">
         <v>1473</v>
       </c>
       <c r="S56" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="T56" s="3" t="s">
+      <c r="T56" s="4" t="s">
         <v>1475</v>
       </c>
-      <c r="U56" s="3" t="s">
+      <c r="U56" s="4" t="s">
         <v>1476</v>
       </c>
-      <c r="V56" s="3" t="s">
+      <c r="V56" s="4" t="s">
         <v>1477</v>
       </c>
-      <c r="W56" s="3" t="s">
+      <c r="W56" s="4" t="s">
         <v>1478</v>
       </c>
-      <c r="X56" s="3" t="s">
+      <c r="X56" s="4" t="s">
         <v>1479</v>
       </c>
-      <c r="Y56" s="3" t="s">
+      <c r="Y56" s="4" t="s">
         <v>1480</v>
       </c>
-      <c r="Z56" s="3" t="s">
+      <c r="Z56" s="4" t="s">
         <v>1481</v>
       </c>
-      <c r="AA56" s="3" t="s">
+      <c r="AA56" s="4" t="s">
         <v>1482</v>
       </c>
-      <c r="AB56" s="3" t="s">
+      <c r="AB56" s="4" t="s">
         <v>1483</v>
       </c>
-      <c r="AC56" s="3" t="s">
+      <c r="AC56" s="4" t="s">
         <v>1484</v>
       </c>
-      <c r="AD56" s="3" t="s">
+      <c r="AD56" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="AE56" s="3" t="s">
+      <c r="AE56" s="4" t="s">
         <v>1485</v>
       </c>
       <c r="AF56" s="3" t="s">
@@ -11737,98 +11176,98 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="3" t="s">
         <v>1407</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>1487</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="4" t="s">
         <v>1488</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="4" t="s">
         <v>1489</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>1490</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="4" t="s">
         <v>1491</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>1492</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="J57" s="4" t="s">
         <v>1493</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>1494</v>
       </c>
-      <c r="L57" s="3" t="s">
+      <c r="L57" s="4" t="s">
         <v>1495</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>1496</v>
       </c>
-      <c r="N57" s="3" t="s">
+      <c r="N57" s="4" t="s">
         <v>1497</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>1498</v>
       </c>
-      <c r="P57" s="3" t="s">
+      <c r="P57" s="4" t="s">
         <v>1499</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="R57" s="3" t="s">
+      <c r="R57" s="4" t="s">
         <v>1500</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>1422</v>
       </c>
-      <c r="T57" s="3" t="s">
+      <c r="T57" s="4" t="s">
         <v>1501</v>
       </c>
-      <c r="U57" s="3" t="s">
+      <c r="U57" s="4" t="s">
         <v>1502</v>
       </c>
-      <c r="V57" s="3" t="s">
+      <c r="V57" s="4" t="s">
         <v>1477</v>
       </c>
-      <c r="W57" s="3" t="s">
+      <c r="W57" s="4" t="s">
         <v>1503</v>
       </c>
-      <c r="X57" s="3" t="s">
+      <c r="X57" s="4" t="s">
         <v>1504</v>
       </c>
-      <c r="Y57" s="3" t="s">
+      <c r="Y57" s="4" t="s">
         <v>1505</v>
       </c>
-      <c r="Z57" s="3" t="s">
+      <c r="Z57" s="4" t="s">
         <v>1506</v>
       </c>
-      <c r="AA57" s="3" t="s">
+      <c r="AA57" s="4" t="s">
         <v>1507</v>
       </c>
-      <c r="AB57" s="3" t="s">
+      <c r="AB57" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="AC57" s="3" t="s">
+      <c r="AC57" s="4" t="s">
         <v>1508</v>
       </c>
-      <c r="AD57" s="3" t="s">
+      <c r="AD57" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE57" s="3" t="s">
+      <c r="AE57" s="4" t="s">
         <v>1509</v>
       </c>
       <c r="AF57" s="3" t="s">
@@ -11838,98 +11277,98 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>1511</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="4" t="s">
         <v>1512</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>1513</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="4" t="s">
         <v>1514</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>1515</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="4" t="s">
         <v>1516</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>1518</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="4" t="s">
         <v>1519</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="4" t="s">
         <v>1520</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="4" t="s">
         <v>1521</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>1522</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="R58" s="4" t="s">
         <v>1523</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="T58" s="4" t="s">
         <v>1524</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="U58" s="4" t="s">
         <v>1525</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="V58" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="W58" s="3" t="s">
+      <c r="W58" s="4" t="s">
         <v>1526</v>
       </c>
-      <c r="X58" s="3" t="s">
+      <c r="X58" s="4" t="s">
         <v>1527</v>
       </c>
-      <c r="Y58" s="3" t="s">
+      <c r="Y58" s="4" t="s">
         <v>1528</v>
       </c>
-      <c r="Z58" s="3" t="s">
+      <c r="Z58" s="4" t="s">
         <v>1529</v>
       </c>
-      <c r="AA58" s="3" t="s">
+      <c r="AA58" s="4" t="s">
         <v>1530</v>
       </c>
-      <c r="AB58" s="3" t="s">
+      <c r="AB58" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="AC58" s="3" t="s">
+      <c r="AC58" s="4" t="s">
         <v>1531</v>
       </c>
-      <c r="AD58" s="3" t="s">
+      <c r="AD58" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE58" s="3" t="s">
+      <c r="AE58" s="4" t="s">
         <v>1532</v>
       </c>
       <c r="AF58" s="3" t="s">
@@ -11939,98 +11378,98 @@
         <v>968</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>1533</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="4" t="s">
         <v>1534</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>1535</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="4" t="s">
         <v>1536</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>1537</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H59" s="4" t="s">
         <v>1538</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="4" t="s">
         <v>1539</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>1540</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="L59" s="4" t="s">
         <v>1541</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="N59" s="3" t="s">
+      <c r="N59" s="4" t="s">
         <v>1542</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P59" s="3" t="s">
+      <c r="P59" s="4" t="s">
         <v>1543</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="R59" s="3" t="s">
+      <c r="R59" s="4" t="s">
         <v>1544</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="T59" s="3" t="s">
+      <c r="T59" s="4" t="s">
         <v>1545</v>
       </c>
-      <c r="U59" s="3" t="s">
+      <c r="U59" s="4" t="s">
         <v>1546</v>
       </c>
-      <c r="V59" s="3" t="s">
+      <c r="V59" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="W59" s="3" t="s">
+      <c r="W59" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="X59" s="3" t="s">
+      <c r="X59" s="4" t="s">
         <v>1547</v>
       </c>
-      <c r="Y59" s="3" t="s">
+      <c r="Y59" s="4" t="s">
         <v>1548</v>
       </c>
-      <c r="Z59" s="3" t="s">
+      <c r="Z59" s="4" t="s">
         <v>1549</v>
       </c>
-      <c r="AA59" s="3" t="s">
+      <c r="AA59" s="4" t="s">
         <v>1550</v>
       </c>
-      <c r="AB59" s="3" t="s">
+      <c r="AB59" s="4" t="s">
         <v>1551</v>
       </c>
-      <c r="AC59" s="3" t="s">
+      <c r="AC59" s="4" t="s">
         <v>1552</v>
       </c>
-      <c r="AD59" s="3" t="s">
+      <c r="AD59" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AE59" s="3" t="s">
+      <c r="AE59" s="4" t="s">
         <v>1190</v>
       </c>
       <c r="AF59" s="3" t="s">
@@ -12040,98 +11479,98 @@
         <v>968</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>1553</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="4" t="s">
         <v>1554</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>1555</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="4" t="s">
         <v>1556</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>1557</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="4" t="s">
         <v>1558</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="J60" s="4" t="s">
         <v>1559</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>1560</v>
       </c>
-      <c r="L60" s="3" t="s">
+      <c r="L60" s="4" t="s">
         <v>1561</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="N60" s="3" t="s">
+      <c r="N60" s="4" t="s">
         <v>1562</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="P60" s="3" t="s">
+      <c r="P60" s="4" t="s">
         <v>1563</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="R60" s="3" t="s">
+      <c r="R60" s="4" t="s">
         <v>1564</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="T60" s="3" t="s">
+      <c r="T60" s="4" t="s">
         <v>1565</v>
       </c>
-      <c r="U60" s="3" t="s">
+      <c r="U60" s="4" t="s">
         <v>1566</v>
       </c>
-      <c r="V60" s="3" t="s">
+      <c r="V60" s="4" t="s">
         <v>1396</v>
       </c>
-      <c r="W60" s="3" t="s">
+      <c r="W60" s="4" t="s">
         <v>1567</v>
       </c>
-      <c r="X60" s="3" t="s">
+      <c r="X60" s="4" t="s">
         <v>1568</v>
       </c>
-      <c r="Y60" s="3" t="s">
+      <c r="Y60" s="4" t="s">
         <v>1569</v>
       </c>
-      <c r="Z60" s="3" t="s">
+      <c r="Z60" s="4" t="s">
         <v>1570</v>
       </c>
-      <c r="AA60" s="3" t="s">
+      <c r="AA60" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="AB60" s="3" t="s">
+      <c r="AB60" s="4" t="s">
         <v>1572</v>
       </c>
-      <c r="AC60" s="3" t="s">
+      <c r="AC60" s="4" t="s">
         <v>1573</v>
       </c>
-      <c r="AD60" s="3" t="s">
+      <c r="AD60" s="4" t="s">
         <v>1574</v>
       </c>
-      <c r="AE60" s="3" t="s">
+      <c r="AE60" s="4" t="s">
         <v>1575</v>
       </c>
       <c r="AF60" s="3" t="s">
@@ -12141,98 +11580,98 @@
         <v>968</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>1577</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="4" t="s">
         <v>1578</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>1579</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="4" t="s">
         <v>1580</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>1581</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="4" t="s">
         <v>1582</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>1583</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J61" s="4" t="s">
         <v>1584</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>1585</v>
       </c>
-      <c r="L61" s="3" t="s">
+      <c r="L61" s="4" t="s">
         <v>1586</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>1587</v>
       </c>
-      <c r="N61" s="3" t="s">
+      <c r="N61" s="4" t="s">
         <v>1588</v>
       </c>
       <c r="O61" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="P61" s="3" t="s">
+      <c r="P61" s="4" t="s">
         <v>1589</v>
       </c>
       <c r="Q61" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="R61" s="3" t="s">
+      <c r="R61" s="4" t="s">
         <v>1591</v>
       </c>
       <c r="S61" s="3" t="s">
         <v>1393</v>
       </c>
-      <c r="T61" s="3" t="s">
+      <c r="T61" s="4" t="s">
         <v>1592</v>
       </c>
-      <c r="U61" s="3" t="s">
+      <c r="U61" s="4" t="s">
         <v>1593</v>
       </c>
-      <c r="V61" s="3" t="s">
+      <c r="V61" s="4" t="s">
         <v>1396</v>
       </c>
-      <c r="W61" s="3" t="s">
+      <c r="W61" s="4" t="s">
         <v>1594</v>
       </c>
-      <c r="X61" s="3" t="s">
+      <c r="X61" s="4" t="s">
         <v>1595</v>
       </c>
-      <c r="Y61" s="3" t="s">
+      <c r="Y61" s="4" t="s">
         <v>1596</v>
       </c>
-      <c r="Z61" s="3" t="s">
+      <c r="Z61" s="4" t="s">
         <v>1597</v>
       </c>
-      <c r="AA61" s="3" t="s">
+      <c r="AA61" s="4" t="s">
         <v>1598</v>
       </c>
-      <c r="AB61" s="3" t="s">
+      <c r="AB61" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="AC61" s="3" t="s">
+      <c r="AC61" s="4" t="s">
         <v>1599</v>
       </c>
-      <c r="AD61" s="3" t="s">
+      <c r="AD61" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="AE61" s="3" t="s">
+      <c r="AE61" s="4" t="s">
         <v>1600</v>
       </c>
       <c r="AF61" s="3" t="s">
@@ -12242,98 +11681,98 @@
         <v>968</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="3" t="s">
         <v>1601</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="4" t="s">
         <v>1602</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="4" t="s">
         <v>1603</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>1604</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="4" t="s">
         <v>1605</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>1606</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="4" t="s">
         <v>1607</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J62" s="4" t="s">
         <v>1608</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>1609</v>
       </c>
-      <c r="L62" s="3" t="s">
+      <c r="L62" s="4" t="s">
         <v>1610</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>1611</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="N62" s="4" t="s">
         <v>1612</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>1613</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="P62" s="4" t="s">
         <v>1614</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="R62" s="3" t="s">
+      <c r="R62" s="4" t="s">
         <v>1615</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>1616</v>
       </c>
-      <c r="T62" s="3" t="s">
+      <c r="T62" s="4" t="s">
         <v>1617</v>
       </c>
-      <c r="U62" s="3" t="s">
+      <c r="U62" s="4" t="s">
         <v>1618</v>
       </c>
-      <c r="V62" s="3" t="s">
+      <c r="V62" s="4" t="s">
         <v>1619</v>
       </c>
-      <c r="W62" s="3" t="s">
+      <c r="W62" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="X62" s="3" t="s">
+      <c r="X62" s="4" t="s">
         <v>1620</v>
       </c>
-      <c r="Y62" s="3" t="s">
+      <c r="Y62" s="4" t="s">
         <v>1621</v>
       </c>
-      <c r="Z62" s="3" t="s">
+      <c r="Z62" s="4" t="s">
         <v>1622</v>
       </c>
-      <c r="AA62" s="3" t="s">
+      <c r="AA62" s="4" t="s">
         <v>1550</v>
       </c>
-      <c r="AB62" s="3" t="s">
+      <c r="AB62" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AC62" s="3" t="s">
+      <c r="AC62" s="4" t="s">
         <v>1623</v>
       </c>
-      <c r="AD62" s="3" t="s">
+      <c r="AD62" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE62" s="3" t="s">
+      <c r="AE62" s="4" t="s">
         <v>1624</v>
       </c>
       <c r="AF62" s="3" t="s">
@@ -12343,98 +11782,98 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="3" t="s">
         <v>1601</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="4" t="s">
         <v>1625</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="4" t="s">
         <v>1626</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>1627</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="4" t="s">
         <v>1628</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>1629</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="4" t="s">
         <v>1630</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="J63" s="4" t="s">
         <v>1631</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>1540</v>
       </c>
-      <c r="L63" s="3" t="s">
+      <c r="L63" s="4" t="s">
         <v>1632</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>1611</v>
       </c>
-      <c r="N63" s="3" t="s">
+      <c r="N63" s="4" t="s">
         <v>1633</v>
       </c>
       <c r="O63" s="3" t="s">
         <v>1634</v>
       </c>
-      <c r="P63" s="3" t="s">
+      <c r="P63" s="4" t="s">
         <v>1635</v>
       </c>
       <c r="Q63" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="R63" s="3" t="s">
+      <c r="R63" s="4" t="s">
         <v>1636</v>
       </c>
       <c r="S63" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="T63" s="3" t="s">
+      <c r="T63" s="4" t="s">
         <v>1637</v>
       </c>
-      <c r="U63" s="3" t="s">
+      <c r="U63" s="4" t="s">
         <v>1638</v>
       </c>
-      <c r="V63" s="3" t="s">
+      <c r="V63" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="W63" s="3" t="s">
+      <c r="W63" s="4" t="s">
         <v>1639</v>
       </c>
-      <c r="X63" s="3" t="s">
+      <c r="X63" s="4" t="s">
         <v>1640</v>
       </c>
-      <c r="Y63" s="3" t="s">
+      <c r="Y63" s="4" t="s">
         <v>1641</v>
       </c>
-      <c r="Z63" s="3" t="s">
+      <c r="Z63" s="4" t="s">
         <v>1642</v>
       </c>
-      <c r="AA63" s="3" t="s">
+      <c r="AA63" s="4" t="s">
         <v>1643</v>
       </c>
-      <c r="AB63" s="3" t="s">
+      <c r="AB63" s="4" t="s">
         <v>1572</v>
       </c>
-      <c r="AC63" s="3" t="s">
+      <c r="AC63" s="4" t="s">
         <v>1644</v>
       </c>
-      <c r="AD63" s="3" t="s">
+      <c r="AD63" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AE63" s="3" t="s">
+      <c r="AE63" s="4" t="s">
         <v>1645</v>
       </c>
       <c r="AF63" s="3" t="s">
@@ -12444,98 +11883,98 @@
         <v>773</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="3" t="s">
         <v>1601</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="4" t="s">
         <v>1646</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="4" t="s">
         <v>1647</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>1648</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="4" t="s">
         <v>1649</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>1650</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H64" s="4" t="s">
         <v>1651</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>1583</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="J64" s="4" t="s">
         <v>1652</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>1653</v>
       </c>
-      <c r="L64" s="3" t="s">
+      <c r="L64" s="4" t="s">
         <v>1654</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>1343</v>
       </c>
-      <c r="N64" s="3" t="s">
+      <c r="N64" s="4" t="s">
         <v>1655</v>
       </c>
       <c r="O64" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="P64" s="3" t="s">
+      <c r="P64" s="4" t="s">
         <v>1656</v>
       </c>
       <c r="Q64" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="R64" s="3" t="s">
+      <c r="R64" s="4" t="s">
         <v>1657</v>
       </c>
       <c r="S64" s="3" t="s">
         <v>1393</v>
       </c>
-      <c r="T64" s="3" t="s">
+      <c r="T64" s="4" t="s">
         <v>1658</v>
       </c>
-      <c r="U64" s="3" t="s">
+      <c r="U64" s="4" t="s">
         <v>1659</v>
       </c>
-      <c r="V64" s="3" t="s">
+      <c r="V64" s="4" t="s">
         <v>1660</v>
       </c>
-      <c r="W64" s="3" t="s">
+      <c r="W64" s="4" t="s">
         <v>1661</v>
       </c>
-      <c r="X64" s="3" t="s">
+      <c r="X64" s="4" t="s">
         <v>1662</v>
       </c>
-      <c r="Y64" s="3" t="s">
+      <c r="Y64" s="4" t="s">
         <v>1663</v>
       </c>
-      <c r="Z64" s="3" t="s">
+      <c r="Z64" s="4" t="s">
         <v>1664</v>
       </c>
-      <c r="AA64" s="3" t="s">
+      <c r="AA64" s="4" t="s">
         <v>1665</v>
       </c>
-      <c r="AB64" s="3" t="s">
+      <c r="AB64" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="AC64" s="3" t="s">
+      <c r="AC64" s="4" t="s">
         <v>1666</v>
       </c>
-      <c r="AD64" s="3" t="s">
+      <c r="AD64" s="4" t="s">
         <v>1404</v>
       </c>
-      <c r="AE64" s="3" t="s">
+      <c r="AE64" s="4" t="s">
         <v>1667</v>
       </c>
       <c r="AF64" s="3" t="s">
@@ -12545,98 +11984,98 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" spans="1:33">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="3" t="s">
         <v>1601</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="4" t="s">
         <v>1669</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="4" t="s">
         <v>1670</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>1627</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="4" t="s">
         <v>1671</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>1629</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="H65" s="4" t="s">
         <v>1672</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="J65" s="4" t="s">
         <v>1673</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>1653</v>
       </c>
-      <c r="L65" s="3" t="s">
+      <c r="L65" s="4" t="s">
         <v>1674</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="N65" s="3" t="s">
+      <c r="N65" s="4" t="s">
         <v>1675</v>
       </c>
       <c r="O65" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P65" s="3" t="s">
+      <c r="P65" s="4" t="s">
         <v>517</v>
       </c>
       <c r="Q65" s="3" t="s">
         <v>1676</v>
       </c>
-      <c r="R65" s="3" t="s">
+      <c r="R65" s="4" t="s">
         <v>1677</v>
       </c>
       <c r="S65" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="T65" s="3" t="s">
+      <c r="T65" s="4" t="s">
         <v>1524</v>
       </c>
-      <c r="U65" s="3" t="s">
+      <c r="U65" s="4" t="s">
         <v>1678</v>
       </c>
-      <c r="V65" s="3" t="s">
+      <c r="V65" s="4" t="s">
         <v>1300</v>
       </c>
-      <c r="W65" s="3" t="s">
+      <c r="W65" s="4" t="s">
         <v>1679</v>
       </c>
-      <c r="X65" s="3" t="s">
+      <c r="X65" s="4" t="s">
         <v>1680</v>
       </c>
-      <c r="Y65" s="3" t="s">
+      <c r="Y65" s="4" t="s">
         <v>1681</v>
       </c>
-      <c r="Z65" s="3" t="s">
+      <c r="Z65" s="4" t="s">
         <v>1682</v>
       </c>
-      <c r="AA65" s="3" t="s">
+      <c r="AA65" s="4" t="s">
         <v>1683</v>
       </c>
-      <c r="AB65" s="3" t="s">
+      <c r="AB65" s="4" t="s">
         <v>1684</v>
       </c>
-      <c r="AC65" s="3" t="s">
+      <c r="AC65" s="4" t="s">
         <v>1685</v>
       </c>
-      <c r="AD65" s="3" t="s">
+      <c r="AD65" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="AE65" s="3" t="s">
+      <c r="AE65" s="4" t="s">
         <v>1686</v>
       </c>
       <c r="AF65" s="3" t="s">
@@ -12647,7 +12086,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>